--- a/暂行20191124开发周期.xlsx
+++ b/暂行20191124开发周期.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PanIt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3BB26-273C-4486-BD88-65D830361164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42BE3DA-0CCF-4AD0-9FB9-BF0A76EE1EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通信逻辑" sheetId="1" r:id="rId1"/>
@@ -362,10 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DataBase类，里面可以存放放User类，给出add(User)方法添加用户,和find(User)方法找到用户，如果找不到返回null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以上是UI内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,6 +399,10 @@
   </si>
   <si>
     <t>以上是上传线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase类，里面可以存放放User类，给出add(User)方法添加用户,和has(User)方法找到用户true 如果找不到返回false,find(User)返回找到的用户 保证存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +891,7 @@
   <dimension ref="B1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1003,6 +1003,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1010,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA03EBB-9F5A-473E-881F-E5F83860EB40}">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1150,46 +1151,46 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
         <v>88</v>
       </c>
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
       <c r="H29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" t="s">
         <v>86</v>
-      </c>
-      <c r="J29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1203,13 +1204,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E2FD72-0913-47FB-8BAA-7380213BC8D7}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="94.75" customWidth="1"/>
+    <col min="2" max="2" width="125.9140625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,7 +1232,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
         <v>43795</v>
